--- a/_RESULTS/Error_budget/error_budget_area2a.xlsx
+++ b/_RESULTS/Error_budget/error_budget_area2a.xlsx
@@ -414,7 +414,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3135243332821549</v>
+        <v>0.3130419794271418</v>
       </c>
       <c r="E2" t="n">
         <v>2.995406379476309</v>
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3829825199866537</v>
+        <v>0.3825029060740827</v>
       </c>
       <c r="E3" t="n">
         <v>2.947685130256178</v>
@@ -462,7 +462,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4405695765302214</v>
+        <v>0.44010338115046</v>
       </c>
       <c r="E4" t="n">
         <v>2.900722677818861</v>
